--- a/va_facility_data_2025-02-20/Monongalia County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Monongalia%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Monongalia County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Monongalia%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Reb143cc322ad4967ac21c4d3096f7deb"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd630b184d3384f3e9c46eee8bde75bac"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra0ce94f91cb848d9a684676c3ba142e1"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re4bf107bb2414e70888aab8d0ff1b9e9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra68e4cb0236444dc942fbabe5da22076"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R222579b5c1d14430b7dcea53ddd9ecfe"/>
   </x:sheets>
 </x:workbook>
 </file>
